--- a/data/trans_camb/CAGE_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.338605007207128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.970209611824664</v>
+        <v>4.970209611824665</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.2368980147419356</v>
@@ -655,7 +655,7 @@
         <v>-0.1259096023132194</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9481075720712239</v>
+        <v>0.9481075720712235</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2752649776914767</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.04967461604991045</v>
+        <v>-0.03384805376063362</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1682903350416971</v>
+        <v>0.2614717376163583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.424440730116985</v>
+        <v>2.397342016894752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8198666517698121</v>
+        <v>-0.8183775370436757</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5039050928750655</v>
+        <v>-0.6355523948882139</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.22233133903637</v>
+        <v>-0.2209811966401985</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2162720997112917</v>
+        <v>-0.1812402441361867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.06085536860331463</v>
+        <v>-0.1209574092589831</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.333309605833193</v>
+        <v>2.387863872766529</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.239028683903677</v>
+        <v>2.16756212416602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.816468065884401</v>
+        <v>2.816605205412348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.408818373569039</v>
+        <v>8.306686393875941</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2223947263343141</v>
+        <v>0.2054549366693951</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.187865986046622</v>
+        <v>4.452482097239097</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8071748578128047</v>
+        <v>0.8290593585071591</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.145729562295165</v>
+        <v>1.189794631435736</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.150245176119075</v>
+        <v>7.140546462962277</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.600276566129814</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5.941790093218631</v>
+        <v>5.941790093218633</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -760,7 +760,7 @@
         <v>-0.5314928554820472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4.002176097186982</v>
+        <v>4.002176097186981</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5499914044345938</v>
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1069864956916726</v>
+        <v>-0.1595838584883142</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03230588771468076</v>
+        <v>0.02476863187255389</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.856389596836221</v>
+        <v>1.699258458211555</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.3793712007462953</v>
+        <v>-0.3444507173143697</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2030475633454699</v>
+        <v>-0.1966019371234926</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>3.041725975032787</v>
+        <v>3.229747523970812</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.155519135484399</v>
+        <v>4.70708204687299</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6.607609678425592</v>
+        <v>6.11576411390798</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>18.49260123214742</v>
+        <v>15.89466409848782</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.637334416569336</v>
+        <v>2.789320064857301</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.583276607572262</v>
+        <v>3.820044380329763</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>21.24148924333331</v>
+        <v>21.78361881135701</v>
       </c>
     </row>
     <row r="10">
@@ -866,7 +866,7 @@
         <v>0.3792121288824855</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.141590265579937</v>
+        <v>1.141590265579938</v>
       </c>
     </row>
     <row r="11">
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.535839583522246</v>
+        <v>0.6016963145720541</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.07234646678617997</v>
+        <v>-0.08317384517118255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1106058129475319</v>
+        <v>-0.14945630233709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3364547647465685</v>
+        <v>-0.354517443175606</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1764934715120628</v>
+        <v>-0.2063042691392824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6499171933591102</v>
+        <v>0.6782581855045673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2643413535062334</v>
+        <v>0.3310678617835394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.01482549162125363</v>
+        <v>-0.004117168704942791</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5147842217210818</v>
+        <v>0.527706757093956</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.167672363322738</v>
+        <v>2.243787150397663</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.296131304325097</v>
+        <v>1.268406469503829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.849692498826953</v>
+        <v>1.695992199505385</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3949101153782273</v>
+        <v>0.3767136750486489</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5589819564366302</v>
+        <v>0.6107292713123765</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.545242693961445</v>
+        <v>3.892985846977756</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.122968204829883</v>
+        <v>1.188800500628686</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7505451254184398</v>
+        <v>0.7687839076952347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.078123253177253</v>
+        <v>2.027805106528977</v>
       </c>
     </row>
     <row r="13">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3937781880926413</v>
+        <v>0.3969520128816836</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1151863038119678</v>
+        <v>-0.1364559080682877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1388505753919271</v>
+        <v>-0.1913548975171312</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8189501070650884</v>
+        <v>-0.8513200757287808</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5141896556870506</v>
+        <v>-0.6228269689534356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9933277410289836</v>
+        <v>0.703659446152559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2835838880694005</v>
+        <v>0.3871748329860165</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04226160221432276</v>
+        <v>-0.01300953826403869</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.692927673563288</v>
+        <v>0.6692164863682846</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.149962862716601</v>
+        <v>4.0419701986966</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.518071274062999</v>
+        <v>2.648486967622466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.654621349291097</v>
+        <v>2.925024045892033</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.33645520880744</v>
+        <v>4.340644228265246</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.365080770179695</v>
+        <v>6.378798211808943</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41.54873114584925</v>
+        <v>36.40879224891191</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.015473026155814</v>
+        <v>3.36992956228482</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.032103239636991</v>
+        <v>2.154838599952416</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.179769298365605</v>
+        <v>5.128378927521844</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>0.1169783546774485</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.389055106037759</v>
+        <v>2.38905510603776</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.4298721166366975</v>
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4843506077655731</v>
+        <v>-0.4301538269690943</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8286332706959056</v>
+        <v>-0.7706207600892551</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8313306184462423</v>
+        <v>0.8142711655579778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.513707771498515</v>
+        <v>-1.296435988199027</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2633810079672754</v>
+        <v>-0.201955391662419</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03263887908528632</v>
+        <v>0.1047169603286638</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5681972184721215</v>
+        <v>-0.5648871082117642</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3497257719528918</v>
+        <v>-0.2105663961373808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9325006345084553</v>
+        <v>0.7704449993825536</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.50731187364087</v>
+        <v>2.670812371194619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.455191597712192</v>
+        <v>1.617317109072568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.65348688587112</v>
+        <v>4.712724974645917</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.088786763612236</v>
+        <v>2.178821286796128</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.686517994293597</v>
+        <v>2.921898564246768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.144071065413979</v>
+        <v>1.173121382312639</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.365897889778227</v>
+        <v>1.369603063364479</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.186256863199849</v>
+        <v>3.258895685929354</v>
       </c>
     </row>
     <row r="19">
@@ -1198,23 +1198,23 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>0.08128456868326257</v>
+        <v>0.1984418943165639</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.7617389363549047</v>
+        <v>-0.6528175610139575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6872703573953696</v>
+        <v>-0.4316530848638496</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8567347264750723</v>
+        <v>-0.7998039966401864</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5635138166750235</v>
+        <v>-0.4094803504366285</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.7600196236181815</v>
+        <v>0.6421997962383568</v>
       </c>
     </row>
     <row r="21">
@@ -1227,19 +1227,19 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>19.40898621371465</v>
+        <v>20.93938547445937</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.479933495220142</v>
+        <v>6.297079940274295</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.640225465461055</v>
+        <v>6.911065576755112</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>13.23049430737457</v>
+        <v>15.29739758306674</v>
       </c>
     </row>
     <row r="22">
@@ -1278,7 +1278,7 @@
         <v>0.4256026715792768</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.736421807545487</v>
+        <v>1.736421807545488</v>
       </c>
     </row>
     <row r="23">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5717321962436182</v>
+        <v>0.595149083978426</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1650611805543292</v>
+        <v>0.1157019538888136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9609751924638744</v>
+        <v>0.9604450065625479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.387280371651155</v>
+        <v>-0.3897491314083117</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.09882286329476329</v>
+        <v>-0.08375597442733002</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8105945340378309</v>
+        <v>0.8371359003024486</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.194747422625504</v>
+        <v>0.1979658513003048</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1136147337522087</v>
+        <v>0.1402570700686875</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.189000693492585</v>
+        <v>1.136738368131307</v>
       </c>
     </row>
     <row r="24">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.837154550524852</v>
+        <v>1.770593575981496</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.232651409710178</v>
+        <v>1.236484077650267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.596183975239155</v>
+        <v>2.622040568321407</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07191129319453142</v>
+        <v>0.08086060824973378</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4921305343847413</v>
+        <v>0.5357178406414362</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.874655661533442</v>
+        <v>2.834588191277736</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7778824956348334</v>
+        <v>0.8211438026919742</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7341447352909214</v>
+        <v>0.7442160069711521</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.410650807627329</v>
+        <v>2.471253096808363</v>
       </c>
     </row>
     <row r="25">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.5195878106370245</v>
+        <v>0.5407641691651751</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1373031654637289</v>
+        <v>0.07569512670170522</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8965032298138065</v>
+        <v>0.9031258642639399</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8922484548149123</v>
+        <v>-0.8530019986503438</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3456811172272105</v>
+        <v>-0.2592936973736565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.768411171628679</v>
+        <v>1.855976162310556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2497614878297715</v>
+        <v>0.2811501241470734</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1486202916209771</v>
+        <v>0.1872215618721934</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.8833782252025</v>
+        <v>1.761718475289218</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.117512843917134</v>
+        <v>3.152948132377793</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.09810695179675</v>
+        <v>2.250540706386768</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.237576936993172</v>
+        <v>4.369655969155376</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7381772249632006</v>
+        <v>0.9374376834434075</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.539676900464606</v>
+        <v>4.07614946859565</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18.05987192205676</v>
+        <v>17.60978889253942</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.954053925004624</v>
+        <v>2.055366919071218</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.824198737260405</v>
+        <v>1.771508191679519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6.08077228465292</v>
+        <v>5.427370441095386</v>
       </c>
     </row>
     <row r="28">
